--- a/utilities/Excel_Sheets/Products/CYB_MMD.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_MMD.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
+    <sheet name="Test_Cases" sheetId="6" r:id="rId1"/>
+    <sheet name="PCI_Scenarios" sheetId="5" r:id="rId2"/>
+    <sheet name="Non_PCI_Scenarios" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Non_PCI_Scenarios!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCI_Scenarios!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>State</t>
   </si>
@@ -79,6 +83,12 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>select_CyberProtector_Only</t>
+  </si>
+  <si>
+    <t>select_CyberProtector_Only_with_Crime_No_PCI</t>
   </si>
 </sst>
 </file>
@@ -488,14 +498,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9D64F2-38CA-4246-8A61-255082C15D4F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,4 +669,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10">
+        <f ca="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <f ca="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346E44E-5505-43C3-BDFF-620B220698B5}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="52" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13">
+        <f ca="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <f ca="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>